--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\land\FoFObE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D0EA2B-02FF-453F-9596-BFD3D1EA0E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="100" windowWidth="21440" windowHeight="13820"/>
+    <workbookView xWindow="9150" yWindow="690" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="FoFObE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>FoFObE Fraction of Forests Owned by Entity</t>
   </si>
@@ -29,53 +41,83 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Fraction of Forest Owned</t>
+    <t>National Forest</t>
+  </si>
+  <si>
+    <t>Other public</t>
+  </si>
+  <si>
+    <t>Forest industry</t>
+  </si>
+  <si>
+    <t>Other private</t>
+  </si>
+  <si>
+    <t>Timber land</t>
+  </si>
+  <si>
+    <t>Reserved forest</t>
+  </si>
+  <si>
+    <t>Other forest</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>Ownership of Forest Land (million hectares)</t>
+  </si>
+  <si>
+    <t>U.S. Forest Service</t>
+  </si>
+  <si>
+    <t>U.S. Forest Facts and Historical Trends</t>
+  </si>
+  <si>
+    <t>http://www.fia.fs.fed.us/library/briefings-summaries-overviews/docs/ForestFactsMetric.pdf</t>
+  </si>
+  <si>
+    <t>Page 6</t>
   </si>
   <si>
     <t>government</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>consumers</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>http://www.nrcan.gc.ca/forests/canada/ownership/17495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">government </t>
-  </si>
-  <si>
-    <t xml:space="preserve">private </t>
-  </si>
-  <si>
-    <t>While private forest lands cover only 6% of Canada’s total forested area, they represent 13% of Canada’s managed forest land.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consumer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: </t>
-  </si>
-  <si>
-    <t>NR Can</t>
-  </si>
-  <si>
-    <t>Forest land ownership</t>
+    <t>The amount of government-owned forest is provided in the table.</t>
+  </si>
+  <si>
+    <t>We assume that all privately-owned forest used for timber land is owned</t>
+  </si>
+  <si>
+    <t>by industry, and half of the remaining privately-owned forest land is owned</t>
+  </si>
+  <si>
+    <t>by industry.  The remainder is owned by consumers.</t>
+  </si>
+  <si>
+    <t>foreign entities</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>Fraction of Forest Owned (dimensionless)</t>
+  </si>
+  <si>
+    <t>domestic industries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,21 +141,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,28 +159,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -163,93 +191,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1485900"/>
-          <a:ext cx="7416800" cy="3911600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="74998"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -295,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,9 +274,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,175 +518,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B6">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <f>Data!B3</f>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <f>SUM(Data!B3,Data!B7)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>0.42384105960264901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <f>Data!B4</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5">
+        <f>SUM(Data!B11,Data!B16,Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>0.52814569536423839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <f>Data!B5</f>
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <f>(Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>4.8013245033112585E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\land\FoFObE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D0EA2B-02FF-453F-9596-BFD3D1EA0E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25401"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_0688A87CA1CDB99B68264A1097CDBC02DA35C6A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F79A511-99CE-4A52-882B-ADC888E69D71}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="690" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="100" windowWidth="21440" windowHeight="13820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="FoFObE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,14 +21,18 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>FoFObE Fraction of Forests Owned by Entity</t>
   </si>
@@ -41,73 +40,46 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>National Forest</t>
-  </si>
-  <si>
-    <t>Other public</t>
-  </si>
-  <si>
-    <t>Forest industry</t>
-  </si>
-  <si>
-    <t>Other private</t>
-  </si>
-  <si>
-    <t>Timber land</t>
-  </si>
-  <si>
-    <t>Reserved forest</t>
-  </si>
-  <si>
-    <t>Other forest</t>
-  </si>
-  <si>
-    <t>U.S.</t>
-  </si>
-  <si>
-    <t>Ownership of Forest Land (million hectares)</t>
-  </si>
-  <si>
-    <t>U.S. Forest Service</t>
-  </si>
-  <si>
-    <t>U.S. Forest Facts and Historical Trends</t>
-  </si>
-  <si>
-    <t>http://www.fia.fs.fed.us/library/briefings-summaries-overviews/docs/ForestFactsMetric.pdf</t>
-  </si>
-  <si>
-    <t>Page 6</t>
+    <t>NRCan</t>
+  </si>
+  <si>
+    <t>Forest land ownership</t>
+  </si>
+  <si>
+    <t>http://www.nrcan.gc.ca/forests/canada/ownership/17495</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>While private forest lands cover only 6% of Canada’s total forested area, they represent 13% of Canada’s managed forest land.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">government </t>
+  </si>
+  <si>
+    <t xml:space="preserve">private </t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumer </t>
+  </si>
+  <si>
+    <t>Fraction of Forest Owned</t>
   </si>
   <si>
     <t>government</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>The amount of government-owned forest is provided in the table.</t>
-  </si>
-  <si>
-    <t>We assume that all privately-owned forest used for timber land is owned</t>
-  </si>
-  <si>
-    <t>by industry, and half of the remaining privately-owned forest land is owned</t>
-  </si>
-  <si>
-    <t>by industry.  The remainder is owned by consumers.</t>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>consumers</t>
   </si>
   <si>
     <t>foreign entities</t>
-  </si>
-  <si>
-    <t>labor and consumers</t>
-  </si>
-  <si>
-    <t>Fraction of Forest Owned (dimensionless)</t>
-  </si>
-  <si>
-    <t>domestic industries</t>
   </si>
 </sst>
 </file>
@@ -117,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +113,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,29 +152,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -196,6 +189,97 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1485900"/>
+          <a:ext cx="7416800" cy="3911600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="74998"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,231 +603,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{532BFF3D-4429-4E7B-A1DC-0456A9B6543E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>29</v>
-      </c>
+    <row r="6" spans="1:2">
+      <c r="B6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -754,55 +730,363 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <f>Data!B3</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <f>Data!B4</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4">
+        <f>Data!B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5">
-        <f>SUM(Data!B3,Data!B7)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
-        <v>0.42384105960264901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5">
-        <f>SUM(Data!B11,Data!B16,Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
-        <v>0.52814569536423839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5">
-        <f>(Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
-        <v>4.8013245033112585E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A317EC-275F-4E76-938B-906F7572489F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B6F2B48-6477-4DCF-84EA-57CB9B3C14E3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD41E6AC-9CBA-4AC2-ABED-AD0CBB736D18}"/>
 </file>
--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25401"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_0688A87CA1CDB99B68264A1097CDBC02DA35C6A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F79A511-99CE-4A52-882B-ADC888E69D71}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="100" windowWidth="21440" windowHeight="13820"/>
+    <workbookView xWindow="400" yWindow="100" windowWidth="21440" windowHeight="13820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="FoFObE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>FoFObE Fraction of Forests Owned by Entity</t>
   </si>
@@ -29,6 +40,33 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>NRCan</t>
+  </si>
+  <si>
+    <t>Forest land ownership</t>
+  </si>
+  <si>
+    <t>http://www.nrcan.gc.ca/forests/canada/ownership/17495</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>While private forest lands cover only 6% of Canada’s total forested area, they represent 13% of Canada’s managed forest land.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">government </t>
+  </si>
+  <si>
+    <t xml:space="preserve">private </t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumer </t>
+  </si>
+  <si>
     <t>Fraction of Forest Owned</t>
   </si>
   <si>
@@ -41,41 +79,17 @@
     <t>consumers</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>http://www.nrcan.gc.ca/forests/canada/ownership/17495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">government </t>
-  </si>
-  <si>
-    <t xml:space="preserve">private </t>
-  </si>
-  <si>
-    <t>While private forest lands cover only 6% of Canada’s total forested area, they represent 13% of Canada’s managed forest land.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consumer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: </t>
-  </si>
-  <si>
-    <t>NR Can</t>
-  </si>
-  <si>
-    <t>Forest land ownership</t>
+    <t>foreign entities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +128,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +159,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -149,6 +169,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -162,6 +183,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -184,7 +208,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -295,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,9 +358,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +410,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,52 +602,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
       <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{532BFF3D-4429-4E7B-A1DC-0456A9B6543E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <extLst>
@@ -595,27 +664,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -623,7 +692,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -631,15 +700,15 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="B6" s="5"/>
     </row>
   </sheetData>
@@ -655,49 +724,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
         <f>Data!B3</f>
         <v>0.94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4">
         <f>Data!B4</f>
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <f>Data!B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -709,4 +788,305 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A317EC-275F-4E76-938B-906F7572489F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B6F2B48-6477-4DCF-84EA-57CB9B3C14E3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD41E6AC-9CBA-4AC2-ABED-AD0CBB736D18}"/>
 </file>
--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -791,8 +791,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -818,6 +818,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -918,6 +919,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1080,7 +1086,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A317EC-275F-4E76-938B-906F7572489F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C316C50E-49E5-45B5-8F77-242E0E113C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
